--- a/description/tables.xlsx
+++ b/description/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\OTUS\Cpp_Professional\HomeWorks\otus-cpp-prof-hw-14-server\description\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E683947C-E050-42D9-A005-8708C07D8AE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C2B9B2-A790-4BF1-84C3-B9E050DFED42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13380" xr2:uid="{BA17052A-9F5A-450E-8C32-CF3E08A01639}"/>
   </bookViews>
@@ -276,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -498,11 +498,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -583,13 +629,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -906,20 +965,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA689873-2D39-4F4E-B093-677AD81DFB43}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="2" max="2" width="30.21875" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" customWidth="1"/>
+    <col min="6" max="6" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -1214,121 +1273,125 @@
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="F32" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="F33" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>1</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="26">
+        <v>1</v>
+      </c>
+      <c r="C34" s="26">
+        <v>2</v>
+      </c>
+      <c r="D34" s="32">
+        <v>45076</v>
+      </c>
+      <c r="E34" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="F34" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="26">
-        <v>1</v>
-      </c>
-      <c r="E34" s="26">
-        <v>2</v>
-      </c>
-      <c r="F34" s="29">
-        <v>45076</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="31"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>2</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14">
+        <v>2</v>
+      </c>
+      <c r="C35" s="14">
+        <v>2</v>
+      </c>
+      <c r="D35" s="30">
+        <v>45071</v>
+      </c>
+      <c r="E35" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="F35" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="14">
-        <v>2</v>
-      </c>
-      <c r="E35" s="14">
-        <v>2</v>
-      </c>
-      <c r="F35" s="28">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="31"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>3</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14">
+        <v>3</v>
+      </c>
+      <c r="C36" s="14">
+        <v>2</v>
+      </c>
+      <c r="D36" s="30">
+        <v>45060</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="F36" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="14">
-        <v>3</v>
-      </c>
-      <c r="E36" s="14">
-        <v>2</v>
-      </c>
-      <c r="F36" s="28">
-        <v>45060</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="31"/>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8">
         <v>4</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="27">
+        <v>3</v>
+      </c>
+      <c r="C37" s="27">
+        <v>3</v>
+      </c>
+      <c r="D37" s="33">
+        <v>45061</v>
+      </c>
+      <c r="E37" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="25" t="s">
+      <c r="F37" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="27">
-        <v>3</v>
-      </c>
-      <c r="E37" s="27">
-        <v>3</v>
-      </c>
-      <c r="F37" s="30">
-        <v>45061</v>
-      </c>
+      <c r="G37" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
